--- a/artfynd/A 2249-2026 artfynd.xlsx
+++ b/artfynd/A 2249-2026 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>131046732</v>
       </c>
       <c r="B2" t="n">
-        <v>92175</v>
+        <v>92179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>131047025</v>
       </c>
       <c r="B3" t="n">
-        <v>89189</v>
+        <v>89193</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -902,7 +902,7 @@
         <v>131046847</v>
       </c>
       <c r="B4" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>131046753</v>
       </c>
       <c r="B5" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>131046755</v>
       </c>
       <c r="B6" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>131046733</v>
       </c>
       <c r="B7" t="n">
-        <v>91804</v>
+        <v>91808</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1337,10 +1337,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131046844</v>
+        <v>131046711</v>
       </c>
       <c r="B8" t="n">
-        <v>79239</v>
+        <v>83223</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1348,21 +1348,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1372,10 +1372,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>402484</v>
+        <v>402363</v>
       </c>
       <c r="R8" t="n">
-        <v>6818538</v>
+        <v>6818428</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>16:23</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>16:23</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1444,10 +1444,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131046711</v>
+        <v>131046843</v>
       </c>
       <c r="B9" t="n">
-        <v>83219</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1455,21 +1455,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1479,10 +1479,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>402363</v>
+        <v>402432</v>
       </c>
       <c r="R9" t="n">
-        <v>6818428</v>
+        <v>6818480</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1551,10 +1551,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131046843</v>
+        <v>131046844</v>
       </c>
       <c r="B10" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>402432</v>
+        <v>402484</v>
       </c>
       <c r="R10" t="n">
-        <v>6818480</v>
+        <v>6818538</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>16:23</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>16:23</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1658,50 +1658,45 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131046788</v>
+        <v>131046763</v>
       </c>
       <c r="B11" t="n">
-        <v>57880</v>
+        <v>92267</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>1209</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>402473</v>
+        <v>402378</v>
       </c>
       <c r="R11" t="n">
-        <v>6818425</v>
+        <v>6818392</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1733,7 +1728,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>16:47</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1743,12 +1738,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>16:47</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1775,45 +1765,50 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131046763</v>
+        <v>131046788</v>
       </c>
       <c r="B12" t="n">
-        <v>92263</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1209</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>402378</v>
+        <v>402473</v>
       </c>
       <c r="R12" t="n">
-        <v>6818392</v>
+        <v>6818425</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1845,7 +1840,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>16:47</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1855,7 +1850,12 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>16:47</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1885,7 +1885,7 @@
         <v>131046735</v>
       </c>
       <c r="B13" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1994,30 +1994,34 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131046811</v>
+        <v>131046806</v>
       </c>
       <c r="B14" t="n">
-        <v>91824</v>
+        <v>83206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5432</v>
+        <v>6439</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>Chaenotheca brachypoda</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Ach.) Tibell</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2025,10 +2029,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>402450</v>
+        <v>402340</v>
       </c>
       <c r="R14" t="n">
-        <v>6818298</v>
+        <v>6818363</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2060,7 +2064,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>16:54</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2070,7 +2074,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>16:54</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2097,10 +2101,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131046808</v>
+        <v>131046811</v>
       </c>
       <c r="B15" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2128,10 +2132,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>402323</v>
+        <v>402450</v>
       </c>
       <c r="R15" t="n">
-        <v>6818416</v>
+        <v>6818298</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2163,7 +2167,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>16:54</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2173,7 +2177,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>16:54</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2200,34 +2204,30 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131046806</v>
+        <v>131046808</v>
       </c>
       <c r="B16" t="n">
-        <v>83202</v>
+        <v>91828</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6439</v>
+        <v>5432</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>(Ach.) Tibell</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2235,10 +2235,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>402340</v>
+        <v>402323</v>
       </c>
       <c r="R16" t="n">
-        <v>6818363</v>
+        <v>6818416</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2280,7 +2280,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2310,7 +2310,7 @@
         <v>131046740</v>
       </c>
       <c r="B17" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>131046809</v>
       </c>
       <c r="B18" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>131046754</v>
       </c>
       <c r="B19" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>131046848</v>
       </c>
       <c r="B20" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>131046752</v>
       </c>
       <c r="B21" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
         <v>131046726</v>
       </c>
       <c r="B22" t="n">
-        <v>91767</v>
+        <v>91771</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2960,10 +2960,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131047016</v>
+        <v>131046845</v>
       </c>
       <c r="B23" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2971,39 +2971,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>402474</v>
+        <v>402575</v>
       </c>
       <c r="R23" t="n">
-        <v>6818507</v>
+        <v>6818545</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3035,7 +3030,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>16:22</t>
+          <t>16:34</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3045,19 +3040,14 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>16:22</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>16:34</t>
         </is>
       </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
       <c r="AE23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="b">
         <v>0</v>
@@ -3077,10 +3067,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131046845</v>
+        <v>131047016</v>
       </c>
       <c r="B24" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3088,34 +3078,39 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>402575</v>
+        <v>402474</v>
       </c>
       <c r="R24" t="n">
-        <v>6818545</v>
+        <v>6818507</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3147,7 +3142,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>16:34</t>
+          <t>16:22</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3157,14 +3152,19 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>16:34</t>
+          <t>16:22</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
       <c r="AE24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG24" t="b">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>131046841</v>
       </c>
       <c r="B25" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>

--- a/artfynd/A 2249-2026 artfynd.xlsx
+++ b/artfynd/A 2249-2026 artfynd.xlsx
@@ -1118,10 +1118,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131046755</v>
+        <v>131046733</v>
       </c>
       <c r="B6" t="n">
-        <v>57881</v>
+        <v>91808</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1129,39 +1129,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>402424</v>
+        <v>402493</v>
       </c>
       <c r="R6" t="n">
-        <v>6818357</v>
+        <v>6818443</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1193,7 +1188,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>16:56</t>
+          <t>16:43</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1203,7 +1198,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>16:56</t>
+          <t>16:43</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1230,10 +1225,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131046733</v>
+        <v>131046755</v>
       </c>
       <c r="B7" t="n">
-        <v>91808</v>
+        <v>57881</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1241,34 +1236,39 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>100049</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>402493</v>
+        <v>402424</v>
       </c>
       <c r="R7" t="n">
-        <v>6818443</v>
+        <v>6818357</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>16:43</t>
+          <t>16:56</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>16:43</t>
+          <t>16:56</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1444,7 +1444,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131046843</v>
+        <v>131046844</v>
       </c>
       <c r="B9" t="n">
         <v>79243</v>
@@ -1479,10 +1479,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>402432</v>
+        <v>402484</v>
       </c>
       <c r="R9" t="n">
-        <v>6818480</v>
+        <v>6818538</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>16:23</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>16:23</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1551,7 +1551,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131046844</v>
+        <v>131046843</v>
       </c>
       <c r="B10" t="n">
         <v>79243</v>
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>402484</v>
+        <v>402432</v>
       </c>
       <c r="R10" t="n">
-        <v>6818538</v>
+        <v>6818480</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>16:23</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>16:23</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1994,34 +1994,30 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131046806</v>
+        <v>131046811</v>
       </c>
       <c r="B14" t="n">
-        <v>83206</v>
+        <v>91828</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6439</v>
+        <v>5432</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>(Ach.) Tibell</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2029,10 +2025,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>402340</v>
+        <v>402450</v>
       </c>
       <c r="R14" t="n">
-        <v>6818363</v>
+        <v>6818298</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2064,7 +2060,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>16:54</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2074,7 +2070,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>16:54</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2101,7 +2097,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131046811</v>
+        <v>131046808</v>
       </c>
       <c r="B15" t="n">
         <v>91828</v>
@@ -2132,10 +2128,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>402450</v>
+        <v>402323</v>
       </c>
       <c r="R15" t="n">
-        <v>6818298</v>
+        <v>6818416</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2167,7 +2163,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>16:54</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2177,7 +2173,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>16:54</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2204,30 +2200,34 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131046808</v>
+        <v>131046806</v>
       </c>
       <c r="B16" t="n">
-        <v>91828</v>
+        <v>83206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5432</v>
+        <v>6439</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>Chaenotheca brachypoda</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Ach.) Tibell</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2235,10 +2235,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>402323</v>
+        <v>402340</v>
       </c>
       <c r="R16" t="n">
-        <v>6818416</v>
+        <v>6818363</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2280,7 +2280,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2960,10 +2960,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131046845</v>
+        <v>131047016</v>
       </c>
       <c r="B23" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2971,34 +2971,39 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>402575</v>
+        <v>402474</v>
       </c>
       <c r="R23" t="n">
-        <v>6818545</v>
+        <v>6818507</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3030,7 +3035,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>16:34</t>
+          <t>16:22</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3040,14 +3045,19 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>16:34</t>
+          <t>16:22</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
       <c r="AE23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG23" t="b">
         <v>0</v>
@@ -3067,10 +3077,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131047016</v>
+        <v>131046845</v>
       </c>
       <c r="B24" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3078,39 +3088,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>402474</v>
+        <v>402575</v>
       </c>
       <c r="R24" t="n">
-        <v>6818507</v>
+        <v>6818545</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3142,7 +3147,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>16:22</t>
+          <t>16:34</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3152,19 +3157,14 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>16:22</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>16:34</t>
         </is>
       </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
       <c r="AE24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG24" t="b">
         <v>0</v>

--- a/artfynd/A 2249-2026 artfynd.xlsx
+++ b/artfynd/A 2249-2026 artfynd.xlsx
@@ -1658,45 +1658,50 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131046763</v>
+        <v>131046735</v>
       </c>
       <c r="B11" t="n">
-        <v>92267</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1209</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>nyligen använt bo</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>402378</v>
+        <v>402448</v>
       </c>
       <c r="R11" t="n">
-        <v>6818392</v>
+        <v>6818295</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1728,7 +1733,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>16:54</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1738,7 +1743,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>16:54</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1765,50 +1770,45 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131046788</v>
+        <v>131046763</v>
       </c>
       <c r="B12" t="n">
-        <v>57884</v>
+        <v>92267</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>1209</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>402473</v>
+        <v>402378</v>
       </c>
       <c r="R12" t="n">
-        <v>6818425</v>
+        <v>6818392</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>16:47</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1850,12 +1850,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>16:47</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1882,7 +1877,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131046735</v>
+        <v>131046788</v>
       </c>
       <c r="B13" t="n">
         <v>57884</v>
@@ -1913,7 +1908,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>nyligen använt bo</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1922,10 +1917,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>402448</v>
+        <v>402473</v>
       </c>
       <c r="R13" t="n">
-        <v>6818295</v>
+        <v>6818425</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1957,7 +1952,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>16:54</t>
+          <t>16:47</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1967,7 +1962,12 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>16:54</t>
+          <t>16:47</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD13" t="b">

--- a/artfynd/A 2249-2026 artfynd.xlsx
+++ b/artfynd/A 2249-2026 artfynd.xlsx
@@ -1118,10 +1118,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131046733</v>
+        <v>131046755</v>
       </c>
       <c r="B6" t="n">
-        <v>91808</v>
+        <v>57881</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1129,34 +1129,39 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>100049</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>402493</v>
+        <v>402424</v>
       </c>
       <c r="R6" t="n">
-        <v>6818443</v>
+        <v>6818357</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1188,7 +1193,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>16:43</t>
+          <t>16:56</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1198,7 +1203,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>16:43</t>
+          <t>16:56</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1225,10 +1230,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131046755</v>
+        <v>131046733</v>
       </c>
       <c r="B7" t="n">
-        <v>57881</v>
+        <v>91808</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1236,39 +1241,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>402424</v>
+        <v>402493</v>
       </c>
       <c r="R7" t="n">
-        <v>6818357</v>
+        <v>6818443</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>16:56</t>
+          <t>16:43</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>16:56</t>
+          <t>16:43</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1337,10 +1337,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131046711</v>
+        <v>131046844</v>
       </c>
       <c r="B8" t="n">
-        <v>83223</v>
+        <v>79243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1348,21 +1348,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1372,10 +1372,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>402363</v>
+        <v>402484</v>
       </c>
       <c r="R8" t="n">
-        <v>6818428</v>
+        <v>6818538</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>16:23</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>16:23</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1444,7 +1444,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131046844</v>
+        <v>131046843</v>
       </c>
       <c r="B9" t="n">
         <v>79243</v>
@@ -1479,10 +1479,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>402484</v>
+        <v>402432</v>
       </c>
       <c r="R9" t="n">
-        <v>6818538</v>
+        <v>6818480</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>16:23</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>16:23</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1551,10 +1551,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131046843</v>
+        <v>131046711</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>83223</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1562,21 +1562,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>402432</v>
+        <v>402363</v>
       </c>
       <c r="R10" t="n">
-        <v>6818480</v>
+        <v>6818428</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1658,7 +1658,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131046735</v>
+        <v>131046788</v>
       </c>
       <c r="B11" t="n">
         <v>57884</v>
@@ -1689,7 +1689,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>nyligen använt bo</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1698,10 +1698,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>402448</v>
+        <v>402473</v>
       </c>
       <c r="R11" t="n">
-        <v>6818295</v>
+        <v>6818425</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>16:54</t>
+          <t>16:47</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1743,7 +1743,12 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>16:54</t>
+          <t>16:47</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1770,45 +1775,50 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131046763</v>
+        <v>131046735</v>
       </c>
       <c r="B12" t="n">
-        <v>92267</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1209</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>nyligen använt bo</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>402378</v>
+        <v>402448</v>
       </c>
       <c r="R12" t="n">
-        <v>6818392</v>
+        <v>6818295</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1840,7 +1850,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>16:54</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1850,7 +1860,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>16:54</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1877,50 +1887,45 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131046788</v>
+        <v>131046763</v>
       </c>
       <c r="B13" t="n">
-        <v>57884</v>
+        <v>92267</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>1209</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>402473</v>
+        <v>402378</v>
       </c>
       <c r="R13" t="n">
-        <v>6818425</v>
+        <v>6818392</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1952,7 +1957,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>16:47</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1962,12 +1967,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>16:47</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1994,30 +1994,34 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131046811</v>
+        <v>131046806</v>
       </c>
       <c r="B14" t="n">
-        <v>91828</v>
+        <v>83206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5432</v>
+        <v>6439</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>Chaenotheca brachypoda</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Ach.) Tibell</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2025,10 +2029,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>402450</v>
+        <v>402340</v>
       </c>
       <c r="R14" t="n">
-        <v>6818298</v>
+        <v>6818363</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2060,7 +2064,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>16:54</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2070,7 +2074,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>16:54</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2097,7 +2101,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131046808</v>
+        <v>131046811</v>
       </c>
       <c r="B15" t="n">
         <v>91828</v>
@@ -2128,10 +2132,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>402323</v>
+        <v>402450</v>
       </c>
       <c r="R15" t="n">
-        <v>6818416</v>
+        <v>6818298</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2163,7 +2167,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>16:54</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2173,7 +2177,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>16:54</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2200,34 +2204,30 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131046806</v>
+        <v>131046808</v>
       </c>
       <c r="B16" t="n">
-        <v>83206</v>
+        <v>91828</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6439</v>
+        <v>5432</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>(Ach.) Tibell</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2235,10 +2235,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>402340</v>
+        <v>402323</v>
       </c>
       <c r="R16" t="n">
-        <v>6818363</v>
+        <v>6818416</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2280,7 +2280,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2960,10 +2960,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131047016</v>
+        <v>131046845</v>
       </c>
       <c r="B23" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2971,39 +2971,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>402474</v>
+        <v>402575</v>
       </c>
       <c r="R23" t="n">
-        <v>6818507</v>
+        <v>6818545</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3035,7 +3030,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>16:22</t>
+          <t>16:34</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3045,19 +3040,14 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>16:22</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>16:34</t>
         </is>
       </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
       <c r="AE23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="b">
         <v>0</v>
@@ -3077,10 +3067,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131046845</v>
+        <v>131047016</v>
       </c>
       <c r="B24" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3088,34 +3078,39 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>402575</v>
+        <v>402474</v>
       </c>
       <c r="R24" t="n">
-        <v>6818545</v>
+        <v>6818507</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3147,7 +3142,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>16:34</t>
+          <t>16:22</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3157,14 +3152,19 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>16:34</t>
+          <t>16:22</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
       <c r="AE24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG24" t="b">
         <v>0</v>

--- a/artfynd/A 2249-2026 artfynd.xlsx
+++ b/artfynd/A 2249-2026 artfynd.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131047025</v>
+        <v>131046847</v>
       </c>
       <c r="B3" t="n">
-        <v>89193</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -803,21 +803,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>510</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>402314</v>
+        <v>402380</v>
       </c>
       <c r="R3" t="n">
-        <v>6818423</v>
+        <v>6818405</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -862,7 +862,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>17:01</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>17:01</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -899,10 +899,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131046847</v>
+        <v>131047025</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>89193</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -910,21 +910,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>510</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -934,10 +934,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>402380</v>
+        <v>402314</v>
       </c>
       <c r="R4" t="n">
-        <v>6818405</v>
+        <v>6818423</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -969,7 +969,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>17:01</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>17:01</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1118,10 +1118,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131046755</v>
+        <v>131046733</v>
       </c>
       <c r="B6" t="n">
-        <v>57881</v>
+        <v>91808</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1129,39 +1129,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>402424</v>
+        <v>402493</v>
       </c>
       <c r="R6" t="n">
-        <v>6818357</v>
+        <v>6818443</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1193,7 +1188,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>16:56</t>
+          <t>16:43</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1203,7 +1198,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>16:56</t>
+          <t>16:43</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1230,10 +1225,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131046733</v>
+        <v>131046755</v>
       </c>
       <c r="B7" t="n">
-        <v>91808</v>
+        <v>57881</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1241,34 +1236,39 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>100049</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>402493</v>
+        <v>402424</v>
       </c>
       <c r="R7" t="n">
-        <v>6818443</v>
+        <v>6818357</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>16:43</t>
+          <t>16:56</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>16:43</t>
+          <t>16:56</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1658,7 +1658,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131046788</v>
+        <v>131046735</v>
       </c>
       <c r="B11" t="n">
         <v>57884</v>
@@ -1689,7 +1689,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>nyligen använt bo</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1698,10 +1698,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>402473</v>
+        <v>402448</v>
       </c>
       <c r="R11" t="n">
-        <v>6818425</v>
+        <v>6818295</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>16:47</t>
+          <t>16:54</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1743,12 +1743,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>16:47</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>16:54</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1775,7 +1770,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131046735</v>
+        <v>131046788</v>
       </c>
       <c r="B12" t="n">
         <v>57884</v>
@@ -1806,7 +1801,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>nyligen använt bo</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1815,10 +1810,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>402448</v>
+        <v>402473</v>
       </c>
       <c r="R12" t="n">
-        <v>6818295</v>
+        <v>6818425</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1850,7 +1845,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>16:54</t>
+          <t>16:47</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1860,7 +1855,12 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>16:54</t>
+          <t>16:47</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1994,34 +1994,30 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131046806</v>
+        <v>131046811</v>
       </c>
       <c r="B14" t="n">
-        <v>83206</v>
+        <v>91828</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6439</v>
+        <v>5432</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>(Ach.) Tibell</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2029,10 +2025,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>402340</v>
+        <v>402450</v>
       </c>
       <c r="R14" t="n">
-        <v>6818363</v>
+        <v>6818298</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2064,7 +2060,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>16:54</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2074,7 +2070,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>16:54</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2101,7 +2097,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131046811</v>
+        <v>131046808</v>
       </c>
       <c r="B15" t="n">
         <v>91828</v>
@@ -2132,10 +2128,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>402450</v>
+        <v>402323</v>
       </c>
       <c r="R15" t="n">
-        <v>6818298</v>
+        <v>6818416</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2167,7 +2163,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>16:54</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2177,7 +2173,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>16:54</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2204,30 +2200,34 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131046808</v>
+        <v>131046806</v>
       </c>
       <c r="B16" t="n">
-        <v>91828</v>
+        <v>83206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5432</v>
+        <v>6439</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>Chaenotheca brachypoda</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Ach.) Tibell</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2235,10 +2235,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>402323</v>
+        <v>402340</v>
       </c>
       <c r="R16" t="n">
-        <v>6818416</v>
+        <v>6818363</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2280,7 +2280,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="AD16" t="b">

--- a/artfynd/A 2249-2026 artfynd.xlsx
+++ b/artfynd/A 2249-2026 artfynd.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131046847</v>
+        <v>131047025</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>89193</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -803,21 +803,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>510</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>402380</v>
+        <v>402314</v>
       </c>
       <c r="R3" t="n">
-        <v>6818405</v>
+        <v>6818423</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -862,7 +862,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>17:01</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>17:01</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -899,10 +899,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131047025</v>
+        <v>131046847</v>
       </c>
       <c r="B4" t="n">
-        <v>89193</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -910,21 +910,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>510</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -934,10 +934,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>402314</v>
+        <v>402380</v>
       </c>
       <c r="R4" t="n">
-        <v>6818423</v>
+        <v>6818405</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -969,7 +969,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>17:01</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>17:01</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1118,10 +1118,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131046733</v>
+        <v>131046755</v>
       </c>
       <c r="B6" t="n">
-        <v>91808</v>
+        <v>57881</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1129,34 +1129,39 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>100049</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>402493</v>
+        <v>402424</v>
       </c>
       <c r="R6" t="n">
-        <v>6818443</v>
+        <v>6818357</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1188,7 +1193,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>16:43</t>
+          <t>16:56</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1198,7 +1203,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>16:43</t>
+          <t>16:56</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1225,10 +1230,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131046755</v>
+        <v>131046733</v>
       </c>
       <c r="B7" t="n">
-        <v>57881</v>
+        <v>91808</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1236,39 +1241,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>402424</v>
+        <v>402493</v>
       </c>
       <c r="R7" t="n">
-        <v>6818357</v>
+        <v>6818443</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>16:56</t>
+          <t>16:43</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>16:56</t>
+          <t>16:43</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1658,50 +1658,45 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131046735</v>
+        <v>131046763</v>
       </c>
       <c r="B11" t="n">
-        <v>57884</v>
+        <v>92267</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>1209</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>nyligen använt bo</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>402448</v>
+        <v>402378</v>
       </c>
       <c r="R11" t="n">
-        <v>6818295</v>
+        <v>6818392</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1733,7 +1728,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>16:54</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1743,7 +1738,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>16:54</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1770,7 +1765,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131046788</v>
+        <v>131046735</v>
       </c>
       <c r="B12" t="n">
         <v>57884</v>
@@ -1801,7 +1796,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>nyligen använt bo</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1810,10 +1805,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>402473</v>
+        <v>402448</v>
       </c>
       <c r="R12" t="n">
-        <v>6818425</v>
+        <v>6818295</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1845,7 +1840,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>16:47</t>
+          <t>16:54</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1855,12 +1850,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>16:47</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>16:54</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1887,45 +1877,50 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131046763</v>
+        <v>131046788</v>
       </c>
       <c r="B13" t="n">
-        <v>92267</v>
+        <v>57884</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1209</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>402378</v>
+        <v>402473</v>
       </c>
       <c r="R13" t="n">
-        <v>6818392</v>
+        <v>6818425</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1957,7 +1952,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>16:47</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1967,7 +1962,12 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>16:47</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1994,7 +1994,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131046811</v>
+        <v>131046808</v>
       </c>
       <c r="B14" t="n">
         <v>91828</v>
@@ -2025,10 +2025,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>402450</v>
+        <v>402323</v>
       </c>
       <c r="R14" t="n">
-        <v>6818298</v>
+        <v>6818416</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>16:54</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2070,7 +2070,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>16:54</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2097,7 +2097,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131046808</v>
+        <v>131046811</v>
       </c>
       <c r="B15" t="n">
         <v>91828</v>
@@ -2128,10 +2128,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>402323</v>
+        <v>402450</v>
       </c>
       <c r="R15" t="n">
-        <v>6818416</v>
+        <v>6818298</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>16:54</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2173,7 +2173,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>16:54</t>
         </is>
       </c>
       <c r="AD15" t="b">

--- a/artfynd/A 2249-2026 artfynd.xlsx
+++ b/artfynd/A 2249-2026 artfynd.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131047025</v>
+        <v>131046847</v>
       </c>
       <c r="B3" t="n">
-        <v>89193</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -803,21 +803,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>510</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>402314</v>
+        <v>402380</v>
       </c>
       <c r="R3" t="n">
-        <v>6818423</v>
+        <v>6818405</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -862,7 +862,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>17:01</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>17:01</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -899,10 +899,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131046847</v>
+        <v>131047025</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>89193</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -910,21 +910,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>510</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -934,10 +934,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>402380</v>
+        <v>402314</v>
       </c>
       <c r="R4" t="n">
-        <v>6818405</v>
+        <v>6818423</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -969,7 +969,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>17:01</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>17:01</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1994,7 +1994,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131046808</v>
+        <v>131046811</v>
       </c>
       <c r="B14" t="n">
         <v>91828</v>
@@ -2025,10 +2025,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>402323</v>
+        <v>402450</v>
       </c>
       <c r="R14" t="n">
-        <v>6818416</v>
+        <v>6818298</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>16:54</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2070,7 +2070,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>16:54</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2097,7 +2097,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131046811</v>
+        <v>131046808</v>
       </c>
       <c r="B15" t="n">
         <v>91828</v>
@@ -2128,10 +2128,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>402450</v>
+        <v>402323</v>
       </c>
       <c r="R15" t="n">
-        <v>6818298</v>
+        <v>6818416</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>16:54</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2173,7 +2173,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>16:54</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AD15" t="b">

--- a/artfynd/A 2249-2026 artfynd.xlsx
+++ b/artfynd/A 2249-2026 artfynd.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131046847</v>
+        <v>131047025</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>89193</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -803,21 +803,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>510</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>402380</v>
+        <v>402314</v>
       </c>
       <c r="R3" t="n">
-        <v>6818405</v>
+        <v>6818423</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -862,7 +862,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>17:01</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>17:01</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -899,10 +899,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131047025</v>
+        <v>131046847</v>
       </c>
       <c r="B4" t="n">
-        <v>89193</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -910,21 +910,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>510</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -934,10 +934,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>402314</v>
+        <v>402380</v>
       </c>
       <c r="R4" t="n">
-        <v>6818423</v>
+        <v>6818405</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -969,7 +969,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>17:01</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>17:01</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1118,10 +1118,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131046755</v>
+        <v>131046733</v>
       </c>
       <c r="B6" t="n">
-        <v>57881</v>
+        <v>91808</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1129,39 +1129,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>402424</v>
+        <v>402493</v>
       </c>
       <c r="R6" t="n">
-        <v>6818357</v>
+        <v>6818443</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1193,7 +1188,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>16:56</t>
+          <t>16:43</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1203,7 +1198,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>16:56</t>
+          <t>16:43</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1230,10 +1225,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131046733</v>
+        <v>131046755</v>
       </c>
       <c r="B7" t="n">
-        <v>91808</v>
+        <v>57881</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1241,34 +1236,39 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>100049</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>402493</v>
+        <v>402424</v>
       </c>
       <c r="R7" t="n">
-        <v>6818443</v>
+        <v>6818357</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>16:43</t>
+          <t>16:56</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>16:43</t>
+          <t>16:56</t>
         </is>
       </c>
       <c r="AD7" t="b">

--- a/artfynd/A 2249-2026 artfynd.xlsx
+++ b/artfynd/A 2249-2026 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>131046732</v>
       </c>
       <c r="B2" t="n">
-        <v>92179</v>
+        <v>92180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131047025</v>
+        <v>131046847</v>
       </c>
       <c r="B3" t="n">
-        <v>89193</v>
+        <v>79244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -803,21 +803,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>510</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>402314</v>
+        <v>402380</v>
       </c>
       <c r="R3" t="n">
-        <v>6818423</v>
+        <v>6818405</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -862,7 +862,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>17:01</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>17:01</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -899,10 +899,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131046847</v>
+        <v>131047025</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>89194</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -910,21 +910,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>510</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -934,10 +934,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>402380</v>
+        <v>402314</v>
       </c>
       <c r="R4" t="n">
-        <v>6818405</v>
+        <v>6818423</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -969,7 +969,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>17:01</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>17:01</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1121,7 +1121,7 @@
         <v>131046733</v>
       </c>
       <c r="B6" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1337,10 +1337,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131046844</v>
+        <v>131046843</v>
       </c>
       <c r="B8" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1372,10 +1372,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>402484</v>
+        <v>402432</v>
       </c>
       <c r="R8" t="n">
-        <v>6818538</v>
+        <v>6818480</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>16:23</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>16:23</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1444,10 +1444,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131046843</v>
+        <v>131046711</v>
       </c>
       <c r="B9" t="n">
-        <v>79243</v>
+        <v>83224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1455,21 +1455,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1479,10 +1479,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>402432</v>
+        <v>402363</v>
       </c>
       <c r="R9" t="n">
-        <v>6818480</v>
+        <v>6818428</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1551,10 +1551,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131046711</v>
+        <v>131046844</v>
       </c>
       <c r="B10" t="n">
-        <v>83223</v>
+        <v>79244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1562,21 +1562,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>402363</v>
+        <v>402484</v>
       </c>
       <c r="R10" t="n">
-        <v>6818428</v>
+        <v>6818538</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>16:23</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>16:23</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1661,7 +1661,7 @@
         <v>131046763</v>
       </c>
       <c r="B11" t="n">
-        <v>92267</v>
+        <v>92268</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1994,30 +1994,34 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131046811</v>
+        <v>131046806</v>
       </c>
       <c r="B14" t="n">
-        <v>91828</v>
+        <v>83207</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5432</v>
+        <v>6439</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>Chaenotheca brachypoda</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Ach.) Tibell</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2025,10 +2029,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>402450</v>
+        <v>402340</v>
       </c>
       <c r="R14" t="n">
-        <v>6818298</v>
+        <v>6818363</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2060,7 +2064,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>16:54</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2070,7 +2074,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>16:54</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2097,10 +2101,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131046808</v>
+        <v>131046811</v>
       </c>
       <c r="B15" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2128,10 +2132,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>402323</v>
+        <v>402450</v>
       </c>
       <c r="R15" t="n">
-        <v>6818416</v>
+        <v>6818298</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2163,7 +2167,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>16:54</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2173,7 +2177,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>16:54</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2200,34 +2204,30 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131046806</v>
+        <v>131046808</v>
       </c>
       <c r="B16" t="n">
-        <v>83206</v>
+        <v>91829</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6439</v>
+        <v>5432</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>(Ach.) Tibell</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2235,10 +2235,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>402340</v>
+        <v>402323</v>
       </c>
       <c r="R16" t="n">
-        <v>6818363</v>
+        <v>6818416</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2280,7 +2280,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2422,7 +2422,7 @@
         <v>131046809</v>
       </c>
       <c r="B18" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>131046848</v>
       </c>
       <c r="B20" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
         <v>131046726</v>
       </c>
       <c r="B22" t="n">
-        <v>91771</v>
+        <v>91772</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>131046845</v>
       </c>
       <c r="B23" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         <v>131046841</v>
       </c>
       <c r="B25" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>

--- a/artfynd/A 2249-2026 artfynd.xlsx
+++ b/artfynd/A 2249-2026 artfynd.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131046847</v>
+        <v>131047025</v>
       </c>
       <c r="B3" t="n">
-        <v>79244</v>
+        <v>89194</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -803,21 +803,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>510</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>402380</v>
+        <v>402314</v>
       </c>
       <c r="R3" t="n">
-        <v>6818405</v>
+        <v>6818423</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -862,7 +862,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>17:01</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>17:01</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -899,10 +899,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131047025</v>
+        <v>131046847</v>
       </c>
       <c r="B4" t="n">
-        <v>89194</v>
+        <v>79244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -910,21 +910,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>510</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -934,10 +934,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>402314</v>
+        <v>402380</v>
       </c>
       <c r="R4" t="n">
-        <v>6818423</v>
+        <v>6818405</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -969,7 +969,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>17:01</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>17:01</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1444,10 +1444,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131046711</v>
+        <v>131046844</v>
       </c>
       <c r="B9" t="n">
-        <v>83224</v>
+        <v>79244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1455,21 +1455,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1479,10 +1479,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>402363</v>
+        <v>402484</v>
       </c>
       <c r="R9" t="n">
-        <v>6818428</v>
+        <v>6818538</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>16:23</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>16:23</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1551,10 +1551,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131046844</v>
+        <v>131046711</v>
       </c>
       <c r="B10" t="n">
-        <v>79244</v>
+        <v>83224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1562,21 +1562,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>402484</v>
+        <v>402363</v>
       </c>
       <c r="R10" t="n">
-        <v>6818538</v>
+        <v>6818428</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>16:23</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>16:23</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1658,45 +1658,50 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131046763</v>
+        <v>131046735</v>
       </c>
       <c r="B11" t="n">
-        <v>92268</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1209</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>nyligen använt bo</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>402378</v>
+        <v>402448</v>
       </c>
       <c r="R11" t="n">
-        <v>6818392</v>
+        <v>6818295</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1728,7 +1733,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>16:54</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1738,7 +1743,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>16:54</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1765,7 +1770,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131046735</v>
+        <v>131046788</v>
       </c>
       <c r="B12" t="n">
         <v>57884</v>
@@ -1796,7 +1801,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>nyligen använt bo</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1805,10 +1810,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>402448</v>
+        <v>402473</v>
       </c>
       <c r="R12" t="n">
-        <v>6818295</v>
+        <v>6818425</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1840,7 +1845,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>16:54</t>
+          <t>16:47</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1850,7 +1855,12 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>16:54</t>
+          <t>16:47</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1877,50 +1887,45 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131046788</v>
+        <v>131046763</v>
       </c>
       <c r="B13" t="n">
-        <v>57884</v>
+        <v>92268</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>1209</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>402473</v>
+        <v>402378</v>
       </c>
       <c r="R13" t="n">
-        <v>6818425</v>
+        <v>6818392</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1952,7 +1957,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>16:47</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1962,12 +1967,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>16:47</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2960,10 +2960,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131046845</v>
+        <v>131047016</v>
       </c>
       <c r="B23" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2971,34 +2971,39 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>402575</v>
+        <v>402474</v>
       </c>
       <c r="R23" t="n">
-        <v>6818545</v>
+        <v>6818507</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3030,7 +3035,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>16:34</t>
+          <t>16:22</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3040,14 +3045,19 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>16:34</t>
+          <t>16:22</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
       <c r="AE23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG23" t="b">
         <v>0</v>
@@ -3067,10 +3077,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131047016</v>
+        <v>131046845</v>
       </c>
       <c r="B24" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3078,39 +3088,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>402474</v>
+        <v>402575</v>
       </c>
       <c r="R24" t="n">
-        <v>6818507</v>
+        <v>6818545</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3142,7 +3147,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>16:22</t>
+          <t>16:34</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3152,19 +3157,14 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>16:22</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>16:34</t>
         </is>
       </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
       <c r="AE24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG24" t="b">
         <v>0</v>

--- a/artfynd/A 2249-2026 artfynd.xlsx
+++ b/artfynd/A 2249-2026 artfynd.xlsx
@@ -1444,10 +1444,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131046844</v>
+        <v>131046711</v>
       </c>
       <c r="B9" t="n">
-        <v>79244</v>
+        <v>83224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1455,21 +1455,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1479,10 +1479,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>402484</v>
+        <v>402363</v>
       </c>
       <c r="R9" t="n">
-        <v>6818538</v>
+        <v>6818428</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>16:23</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>16:23</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1551,10 +1551,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131046711</v>
+        <v>131046844</v>
       </c>
       <c r="B10" t="n">
-        <v>83224</v>
+        <v>79244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1562,21 +1562,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>402363</v>
+        <v>402484</v>
       </c>
       <c r="R10" t="n">
-        <v>6818428</v>
+        <v>6818538</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>16:23</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>16:23</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1658,50 +1658,45 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131046735</v>
+        <v>131046763</v>
       </c>
       <c r="B11" t="n">
-        <v>57884</v>
+        <v>92268</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>1209</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>nyligen använt bo</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>402448</v>
+        <v>402378</v>
       </c>
       <c r="R11" t="n">
-        <v>6818295</v>
+        <v>6818392</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1733,7 +1728,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>16:54</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1743,7 +1738,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>16:54</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1770,7 +1765,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131046788</v>
+        <v>131046735</v>
       </c>
       <c r="B12" t="n">
         <v>57884</v>
@@ -1801,7 +1796,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>nyligen använt bo</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1810,10 +1805,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>402473</v>
+        <v>402448</v>
       </c>
       <c r="R12" t="n">
-        <v>6818425</v>
+        <v>6818295</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1845,7 +1840,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>16:47</t>
+          <t>16:54</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1855,12 +1850,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>16:47</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Färska ringhack (gran)</t>
+          <t>16:54</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1887,45 +1877,50 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131046763</v>
+        <v>131046788</v>
       </c>
       <c r="B13" t="n">
-        <v>92268</v>
+        <v>57884</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1209</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>402378</v>
+        <v>402473</v>
       </c>
       <c r="R13" t="n">
-        <v>6818392</v>
+        <v>6818425</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1957,7 +1952,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>16:47</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1967,7 +1962,12 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>17:02</t>
+          <t>16:47</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Färska ringhack (gran)</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1994,34 +1994,30 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131046806</v>
+        <v>131046811</v>
       </c>
       <c r="B14" t="n">
-        <v>83207</v>
+        <v>91829</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6439</v>
+        <v>5432</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>(Ach.) Tibell</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2029,10 +2025,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>402340</v>
+        <v>402450</v>
       </c>
       <c r="R14" t="n">
-        <v>6818363</v>
+        <v>6818298</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2064,7 +2060,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>16:54</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2074,7 +2070,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>16:54</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2101,7 +2097,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131046811</v>
+        <v>131046808</v>
       </c>
       <c r="B15" t="n">
         <v>91829</v>
@@ -2132,10 +2128,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>402450</v>
+        <v>402323</v>
       </c>
       <c r="R15" t="n">
-        <v>6818298</v>
+        <v>6818416</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2167,7 +2163,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>16:54</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2177,7 +2173,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>16:54</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2204,30 +2200,34 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131046808</v>
+        <v>131046806</v>
       </c>
       <c r="B16" t="n">
-        <v>91829</v>
+        <v>83207</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5432</v>
+        <v>6439</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>Chaenotheca brachypoda</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Ach.) Tibell</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2235,10 +2235,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>402323</v>
+        <v>402340</v>
       </c>
       <c r="R16" t="n">
-        <v>6818416</v>
+        <v>6818363</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2280,7 +2280,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2960,10 +2960,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131047016</v>
+        <v>131046845</v>
       </c>
       <c r="B23" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2971,39 +2971,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>402474</v>
+        <v>402575</v>
       </c>
       <c r="R23" t="n">
-        <v>6818507</v>
+        <v>6818545</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3035,7 +3030,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>16:22</t>
+          <t>16:34</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3045,19 +3040,14 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>16:22</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>16:34</t>
         </is>
       </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
       <c r="AE23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="b">
         <v>0</v>
@@ -3077,10 +3067,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131046845</v>
+        <v>131047016</v>
       </c>
       <c r="B24" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3088,34 +3078,39 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>402575</v>
+        <v>402474</v>
       </c>
       <c r="R24" t="n">
-        <v>6818545</v>
+        <v>6818507</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3147,7 +3142,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>16:34</t>
+          <t>16:22</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3157,14 +3152,19 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>16:34</t>
+          <t>16:22</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
       <c r="AE24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG24" t="b">
         <v>0</v>
